--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540310.2966315194</v>
+        <v>536549.5592899083</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5973276.738376975</v>
+        <v>5973276.738376968</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4978241.944361828</v>
+        <v>4978241.944361829</v>
       </c>
     </row>
     <row r="11">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="U3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="V3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="W3" t="n">
         <v>36.39025468426209</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,76 +816,76 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>36.39025468426209</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D4" t="n">
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>21.20364308168184</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -980,20 +980,20 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H6" t="n">
-        <v>36.39025468426209</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="I7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343126</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1214,67 +1214,67 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E9" t="n">
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="W9" t="n">
         <v>36.39025468426209</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>339.7837571550515</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>246.5908803063699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>141.05024842887</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>187.63547984768</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1612,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>116.6395830120773</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>340.6710145143651</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>87.56931538056975</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>200.7766851347001</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>181.6595718659837</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>300.0284890858644</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>81.11220335854917</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>134.9931717057376</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2095,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>267.6560135949953</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>145.0162502473397</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>97.13280585524764</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.4370183872467299</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>156.7408525508151</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>275.3875117338734</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -2374,19 +2374,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>299.0690661489923</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>130.2119421780739</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -2611,16 +2611,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2797,19 +2797,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>359.1625367826961</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>200.479975298184</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.91525306713483</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>113.5238567447585</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0554781988521</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>185.0779563346915</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.9512678218862</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3486,10 +3486,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>132.4014116505531</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3508,19 +3508,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>212.4253808486412</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>81.14370760697716</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>97.96222463876536</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3720,7 +3720,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>263.5587154165266</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3748,13 +3748,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>188.63798035468</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>109.5540470185018</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>94.48222241505165</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>231.1678702636863</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.01987482572841</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>54.91274684145317</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.559029920444</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>31.6677553097656</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,7 +4152,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -4194,7 +4194,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064263</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549119</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419042</v>
       </c>
       <c r="F2" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G2" t="n">
         <v>3.305200243802188</v>
@@ -4333,13 +4333,13 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K2" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L2" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M2" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N2" t="n">
         <v>42.55445313895319</v>
@@ -4348,10 +4348,10 @@
         <v>83.45630615600527</v>
       </c>
       <c r="P2" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q2" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G3" t="n">
         <v>3.305200243802188</v>
@@ -4412,49 +4412,49 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K3" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L3" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M3" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N3" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O3" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P3" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="T3" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>81.79535956884203</v>
       </c>
-      <c r="U3" t="n">
-        <v>45.03752655443588</v>
-      </c>
       <c r="V3" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="W3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C4" t="n">
         <v>45.03752655443588</v>
       </c>
       <c r="D4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I4" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="L4" t="n">
         <v>44.20705326085427</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>85.10890627790634</v>
       </c>
-      <c r="L4" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="M4" t="n">
-        <v>124.3581591730573</v>
-      </c>
       <c r="N4" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O4" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P4" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S4" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T4" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U4" t="n">
-        <v>143.8421908954813</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V4" t="n">
-        <v>143.8421908954813</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W4" t="n">
-        <v>143.8421908954813</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X4" t="n">
-        <v>143.8421908954813</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.5021791757032</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="5">
@@ -4570,19 +4570,19 @@
         <v>42.55445313895316</v>
       </c>
       <c r="K5" t="n">
-        <v>42.55445313895316</v>
+        <v>83.45630615600524</v>
       </c>
       <c r="L5" t="n">
-        <v>42.55445313895316</v>
+        <v>83.45630615600524</v>
       </c>
       <c r="M5" t="n">
-        <v>42.55445313895316</v>
+        <v>83.45630615600524</v>
       </c>
       <c r="N5" t="n">
-        <v>42.55445313895316</v>
+        <v>83.45630615600524</v>
       </c>
       <c r="O5" t="n">
-        <v>42.55445313895316</v>
+        <v>83.45630615600524</v>
       </c>
       <c r="P5" t="n">
         <v>83.45630615600524</v>
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C6" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D6" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E6" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F6" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O6" t="n">
-        <v>42.55445313895319</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="P6" t="n">
-        <v>83.45630615600527</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>152.074432455416</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4682,16 +4682,16 @@
         <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G7" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H7" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L7" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M7" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N7" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O7" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4758,19 +4758,19 @@
         <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V7" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W7" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X7" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y7" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E8" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="I8" t="n">
         <v>3.305200243802188</v>
@@ -4810,22 +4810,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="L8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M8" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N8" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O8" t="n">
-        <v>42.55445313895319</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P8" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R8" t="n">
         <v>165.2600121901094</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
         <v>3.305200243802188</v>
@@ -4883,25 +4883,25 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>29.36887340425979</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K9" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L9" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M9" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N9" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O9" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P9" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="M10" t="n">
         <v>44.20705326085427</v>
-      </c>
-      <c r="K10" t="n">
-        <v>85.10890627790634</v>
-      </c>
-      <c r="L10" t="n">
-        <v>85.10890627790634</v>
-      </c>
-      <c r="M10" t="n">
-        <v>85.10890627790634</v>
       </c>
       <c r="N10" t="n">
         <v>85.10890627790634</v>
       </c>
       <c r="O10" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4989,25 +4989,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S10" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T10" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U10" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V10" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W10" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X10" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1748.628930102402</v>
+        <v>1312.719145276847</v>
       </c>
       <c r="C11" t="n">
-        <v>1310.486457285825</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D11" t="n">
         <v>874.5766724602698</v>
@@ -5032,22 +5032,22 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5056,37 +5056,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W11" t="n">
-        <v>1997.710627381563</v>
+        <v>1655.93506159508</v>
       </c>
       <c r="X11" t="n">
-        <v>1997.710627381563</v>
+        <v>1655.93506159508</v>
       </c>
       <c r="Y11" t="n">
-        <v>1748.628930102402</v>
+        <v>1655.93506159508</v>
       </c>
     </row>
     <row r="12">
@@ -5099,43 +5099,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668975</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>663.4738450083642</v>
+        <v>698.5773814739204</v>
       </c>
       <c r="C13" t="n">
-        <v>663.4738450083642</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="D13" t="n">
-        <v>663.4738450083642</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E13" t="n">
-        <v>520.9988465953642</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2917925571204</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
         <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1019.751453776091</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1150.35584611462</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1363.207425545387</v>
       </c>
       <c r="X13" t="n">
-        <v>890.8935156942559</v>
+        <v>1117.815670878799</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083642</v>
+        <v>890.3960001929074</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2016.215441574641</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="C14" t="n">
-        <v>1578.072968758064</v>
+        <v>1462.576271425267</v>
       </c>
       <c r="D14" t="n">
-        <v>1578.072968758064</v>
+        <v>1026.666486599712</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>592.8917417580069</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>165.0243121672146</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>165.0243121672146</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W14" t="n">
-        <v>2016.215441574641</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X14" t="n">
-        <v>2016.215441574641</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y14" t="n">
-        <v>2016.215441574641</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="15">
@@ -5339,22 +5339,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,7 +5363,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.9024503859703</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C16" t="n">
-        <v>541.3407388691952</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D16" t="n">
-        <v>375.4627460707179</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E16" t="n">
-        <v>375.4627460707179</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F16" t="n">
-        <v>198.7556920324741</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>875.5973915434845</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1445.355106505019</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O16" t="n">
-        <v>1982.790237078562</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.514407000715</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V16" t="n">
-        <v>1650.558898871145</v>
+        <v>1794.985437366909</v>
       </c>
       <c r="W16" t="n">
-        <v>1378.532494457437</v>
+        <v>1592.180704907616</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.140739790849</v>
+        <v>1346.788950241029</v>
       </c>
       <c r="Y16" t="n">
-        <v>905.7210691049575</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2053.353563800119</v>
+        <v>1528.984056563801</v>
       </c>
       <c r="C17" t="n">
-        <v>1615.211090983543</v>
+        <v>1345.489539527453</v>
       </c>
       <c r="D17" t="n">
-        <v>1179.301306157987</v>
+        <v>909.5797547018979</v>
       </c>
       <c r="E17" t="n">
-        <v>745.5265613162825</v>
+        <v>475.805009860193</v>
       </c>
       <c r="F17" t="n">
-        <v>317.6591317254902</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="G17" t="n">
-        <v>317.6591317254902</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="H17" t="n">
-        <v>47.93758026940068</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="I17" t="n">
-        <v>119.1375305205813</v>
+        <v>119.1375305205814</v>
       </c>
       <c r="J17" t="n">
-        <v>312.6047130658779</v>
+        <v>276.7843057640267</v>
       </c>
       <c r="K17" t="n">
-        <v>548.8763634450988</v>
+        <v>513.0559561432476</v>
       </c>
       <c r="L17" t="n">
-        <v>841.9922383089995</v>
+        <v>806.1718310071483</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.140126477787</v>
+        <v>1132.319719175935</v>
       </c>
       <c r="N17" t="n">
-        <v>1499.565428454264</v>
+        <v>1463.745021152413</v>
       </c>
       <c r="O17" t="n">
-        <v>1812.520942995557</v>
+        <v>1776.700535693706</v>
       </c>
       <c r="P17" t="n">
-        <v>2079.621234174826</v>
+        <v>2043.800826872975</v>
       </c>
       <c r="Q17" t="n">
-        <v>2280.202429185893</v>
+        <v>2244.382021884042</v>
       </c>
       <c r="R17" t="n">
-        <v>2396.879013470034</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S17" t="n">
-        <v>2356.412643684831</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="T17" t="n">
-        <v>2356.412643684831</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="U17" t="n">
-        <v>2356.412643684831</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="V17" t="n">
-        <v>2356.412643684831</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="W17" t="n">
-        <v>2356.412643684831</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="X17" t="n">
-        <v>2053.353563800119</v>
+        <v>1937.270180264147</v>
       </c>
       <c r="Y17" t="n">
-        <v>2053.353563800119</v>
+        <v>1528.984056563801</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>543.3023337868367</v>
+        <v>543.3023337868368</v>
       </c>
       <c r="C18" t="n">
-        <v>436.845872623479</v>
+        <v>436.8458726234791</v>
       </c>
       <c r="D18" t="n">
-        <v>341.7555837700323</v>
+        <v>341.7555837700324</v>
       </c>
       <c r="E18" t="n">
-        <v>247.635169096986</v>
+        <v>247.6351690969861</v>
       </c>
       <c r="F18" t="n">
-        <v>164.2513307131476</v>
+        <v>164.2513307131477</v>
       </c>
       <c r="G18" t="n">
-        <v>79.88023030280442</v>
+        <v>79.88023030280453</v>
       </c>
       <c r="H18" t="n">
-        <v>47.93758026940068</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="I18" t="n">
-        <v>82.1543164408768</v>
+        <v>82.15431644087691</v>
       </c>
       <c r="J18" t="n">
-        <v>176.0476557873439</v>
+        <v>176.047655787344</v>
       </c>
       <c r="K18" t="n">
-        <v>336.5263278415142</v>
+        <v>336.5263278415143</v>
       </c>
       <c r="L18" t="n">
-        <v>552.3097067165364</v>
+        <v>552.3097067165365</v>
       </c>
       <c r="M18" t="n">
-        <v>804.1187320192339</v>
+        <v>804.118732019234</v>
       </c>
       <c r="N18" t="n">
         <v>1062.592392940554</v>
       </c>
       <c r="O18" t="n">
-        <v>1299.045295755084</v>
+        <v>1299.045295755085</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.81959631989</v>
+        <v>1488.819596319891</v>
       </c>
       <c r="Q18" t="n">
         <v>1615.678690528125</v>
@@ -5636,10 +5636,10 @@
         <v>945.9594498484992</v>
       </c>
       <c r="X18" t="n">
-        <v>791.0920140873791</v>
+        <v>791.0920140873792</v>
       </c>
       <c r="Y18" t="n">
-        <v>664.6062348665998</v>
+        <v>664.6062348665999</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.0252810306611</v>
+        <v>894.8804249040377</v>
       </c>
       <c r="C19" t="n">
-        <v>527.463569513886</v>
+        <v>722.3187133872626</v>
       </c>
       <c r="D19" t="n">
-        <v>445.5320509698969</v>
+        <v>556.4407205887853</v>
       </c>
       <c r="E19" t="n">
-        <v>275.7740472206342</v>
+        <v>556.4407205887853</v>
       </c>
       <c r="F19" t="n">
-        <v>275.7740472206342</v>
+        <v>379.7336665505416</v>
       </c>
       <c r="G19" t="n">
-        <v>111.0328668331526</v>
+        <v>243.3769274538369</v>
       </c>
       <c r="H19" t="n">
-        <v>111.0328668331526</v>
+        <v>111.0328668331528</v>
       </c>
       <c r="I19" t="n">
-        <v>47.93758026940068</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="J19" t="n">
-        <v>193.4229291362737</v>
+        <v>106.8432439715839</v>
       </c>
       <c r="K19" t="n">
-        <v>564.9814842749674</v>
+        <v>203.6433445391421</v>
       </c>
       <c r="L19" t="n">
-        <v>688.8522858932654</v>
+        <v>745.7240279254011</v>
       </c>
       <c r="M19" t="n">
-        <v>1278.940545412708</v>
+        <v>1335.812287444844</v>
       </c>
       <c r="N19" t="n">
-        <v>1672.436462811384</v>
+        <v>1905.570002406378</v>
       </c>
       <c r="O19" t="n">
-        <v>2209.871593384927</v>
+        <v>2209.871593384933</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.640649562611</v>
+        <v>2310.640649562616</v>
       </c>
       <c r="Q19" t="n">
-        <v>2380.407920793266</v>
+        <v>2380.407920793272</v>
       </c>
       <c r="R19" t="n">
-        <v>2396.879013470034</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S19" t="n">
-        <v>2252.452474974269</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="T19" t="n">
-        <v>2010.205250877675</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="U19" t="n">
-        <v>1731.818618926418</v>
+        <v>2118.492381518782</v>
       </c>
       <c r="V19" t="n">
-        <v>1444.863110796849</v>
+        <v>1831.536873389213</v>
       </c>
       <c r="W19" t="n">
-        <v>1172.83670638314</v>
+        <v>1559.510468975504</v>
       </c>
       <c r="X19" t="n">
-        <v>927.4449517165529</v>
+        <v>1314.118714308917</v>
       </c>
       <c r="Y19" t="n">
-        <v>700.0252810306611</v>
+        <v>1086.699043623025</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1885.570700675457</v>
+        <v>1783.63201234403</v>
       </c>
       <c r="C20" t="n">
-        <v>1885.570700675457</v>
+        <v>1345.489539527453</v>
       </c>
       <c r="D20" t="n">
-        <v>1449.660915849902</v>
+        <v>909.5797547018979</v>
       </c>
       <c r="E20" t="n">
-        <v>1015.886171008197</v>
+        <v>475.805009860193</v>
       </c>
       <c r="F20" t="n">
-        <v>588.0187414174047</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="G20" t="n">
-        <v>317.6591317254902</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="H20" t="n">
-        <v>47.93758026940068</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="I20" t="n">
-        <v>119.1375305205813</v>
+        <v>119.1375305205814</v>
       </c>
       <c r="J20" t="n">
-        <v>276.7843057640266</v>
+        <v>276.7843057640267</v>
       </c>
       <c r="K20" t="n">
-        <v>513.0559561432475</v>
+        <v>513.0559561432476</v>
       </c>
       <c r="L20" t="n">
-        <v>806.1718310071482</v>
+        <v>806.1718310071483</v>
       </c>
       <c r="M20" t="n">
         <v>1132.319719175935</v>
@@ -5773,31 +5773,31 @@
         <v>2043.800826872975</v>
       </c>
       <c r="Q20" t="n">
-        <v>2244.382021884042</v>
+        <v>2280.202429185899</v>
       </c>
       <c r="R20" t="n">
-        <v>2396.879013470034</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S20" t="n">
-        <v>2356.412643684831</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="T20" t="n">
-        <v>2144.641392153943</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="U20" t="n">
-        <v>1885.570700675457</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="V20" t="n">
-        <v>1885.570700675457</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="W20" t="n">
-        <v>1885.570700675457</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="X20" t="n">
-        <v>1885.570700675457</v>
+        <v>2209.931582828938</v>
       </c>
       <c r="Y20" t="n">
-        <v>1885.570700675457</v>
+        <v>2209.931582828938</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>543.3023337868367</v>
+        <v>543.3023337868368</v>
       </c>
       <c r="C21" t="n">
-        <v>436.845872623479</v>
+        <v>436.8458726234791</v>
       </c>
       <c r="D21" t="n">
-        <v>341.7555837700323</v>
+        <v>341.7555837700324</v>
       </c>
       <c r="E21" t="n">
-        <v>247.635169096986</v>
+        <v>247.6351690969861</v>
       </c>
       <c r="F21" t="n">
-        <v>164.2513307131476</v>
+        <v>164.2513307131477</v>
       </c>
       <c r="G21" t="n">
-        <v>79.88023030280442</v>
+        <v>79.88023030280453</v>
       </c>
       <c r="H21" t="n">
-        <v>47.93758026940068</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="I21" t="n">
-        <v>82.1543164408768</v>
+        <v>82.15431644087691</v>
       </c>
       <c r="J21" t="n">
-        <v>176.0476557873439</v>
+        <v>176.047655787344</v>
       </c>
       <c r="K21" t="n">
-        <v>336.5263278415142</v>
+        <v>336.5263278415143</v>
       </c>
       <c r="L21" t="n">
-        <v>552.3097067165364</v>
+        <v>552.3097067165365</v>
       </c>
       <c r="M21" t="n">
-        <v>804.1187320192339</v>
+        <v>804.118732019234</v>
       </c>
       <c r="N21" t="n">
         <v>1062.592392940554</v>
       </c>
       <c r="O21" t="n">
-        <v>1299.045295755084</v>
+        <v>1299.045295755085</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.81959631989</v>
+        <v>1488.819596319891</v>
       </c>
       <c r="Q21" t="n">
         <v>1615.678690528125</v>
@@ -5873,10 +5873,10 @@
         <v>945.9594498484992</v>
       </c>
       <c r="X21" t="n">
-        <v>791.0920140873791</v>
+        <v>791.0920140873792</v>
       </c>
       <c r="Y21" t="n">
-        <v>664.6062348665998</v>
+        <v>664.6062348665999</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>786.5932942629308</v>
+        <v>898.0249554740319</v>
       </c>
       <c r="C22" t="n">
-        <v>614.0315827461558</v>
+        <v>725.4632439572569</v>
       </c>
       <c r="D22" t="n">
-        <v>448.1535899476785</v>
+        <v>559.5852511587796</v>
       </c>
       <c r="E22" t="n">
-        <v>278.3955861984157</v>
+        <v>389.8272474095168</v>
       </c>
       <c r="F22" t="n">
-        <v>180.2816408900848</v>
+        <v>213.120193371273</v>
       </c>
       <c r="G22" t="n">
-        <v>180.2816408900848</v>
+        <v>48.37901298379143</v>
       </c>
       <c r="H22" t="n">
-        <v>47.93758026940068</v>
+        <v>48.37901298379143</v>
       </c>
       <c r="I22" t="n">
-        <v>47.93758026940068</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="J22" t="n">
-        <v>106.8432439715838</v>
+        <v>106.8432439715839</v>
       </c>
       <c r="K22" t="n">
-        <v>203.643344539142</v>
+        <v>203.6433445391421</v>
       </c>
       <c r="L22" t="n">
-        <v>745.7240279254009</v>
+        <v>624.5674615409841</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.812287444844</v>
+        <v>755.1718538795136</v>
       </c>
       <c r="N22" t="n">
-        <v>1905.570002406378</v>
+        <v>1324.929568841048</v>
       </c>
       <c r="O22" t="n">
-        <v>2209.871593384927</v>
+        <v>1862.364699414591</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.640649562611</v>
+        <v>2310.640649562616</v>
       </c>
       <c r="Q22" t="n">
-        <v>2380.407920793266</v>
+        <v>2380.407920793272</v>
       </c>
       <c r="R22" t="n">
-        <v>2396.879013470034</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S22" t="n">
-        <v>2252.452474974269</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="T22" t="n">
-        <v>2010.205250877675</v>
+        <v>2154.631789373446</v>
       </c>
       <c r="U22" t="n">
-        <v>2010.205250877675</v>
+        <v>1876.245157422189</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.249742748106</v>
+        <v>1589.289649292619</v>
       </c>
       <c r="W22" t="n">
-        <v>1451.223338334397</v>
+        <v>1317.263244878911</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.83158366781</v>
+        <v>1317.263244878911</v>
       </c>
       <c r="Y22" t="n">
-        <v>978.411912981918</v>
+        <v>1089.843574193019</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.093053946999</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="C23" t="n">
-        <v>1876.950581130422</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="D23" t="n">
-        <v>1441.040796304866</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="E23" t="n">
-        <v>1007.266051463162</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="F23" t="n">
         <v>729.0968476915723</v>
@@ -6022,19 +6022,19 @@
         <v>2741.392624431906</v>
       </c>
       <c r="U23" t="n">
-        <v>2741.392624431906</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.392624431906</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="W23" t="n">
-        <v>2741.392624431906</v>
+        <v>1714.84952829828</v>
       </c>
       <c r="X23" t="n">
-        <v>2741.392624431906</v>
+        <v>1295.707064877591</v>
       </c>
       <c r="Y23" t="n">
-        <v>2741.392624431906</v>
+        <v>887.4209411772441</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>564.2447313620958</v>
       </c>
       <c r="M24" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6135,10 +6135,10 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G25" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993958</v>
       </c>
       <c r="H25" t="n">
         <v>122.9678914787119</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>461.1213706923363</v>
+        <v>2031.016534924497</v>
       </c>
       <c r="C26" t="n">
-        <v>461.1213706923363</v>
+        <v>1592.87406210792</v>
       </c>
       <c r="D26" t="n">
-        <v>461.1213706923363</v>
+        <v>1156.964277282364</v>
       </c>
       <c r="E26" t="n">
-        <v>461.1213706923363</v>
+        <v>1156.964277282364</v>
       </c>
       <c r="F26" t="n">
-        <v>329.5941563710495</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G26" t="n">
         <v>329.5941563710495</v>
@@ -6259,19 +6259,19 @@
         <v>2741.392624431906</v>
       </c>
       <c r="U26" t="n">
-        <v>2482.32193295342</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="V26" t="n">
-        <v>2119.704982887247</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="W26" t="n">
-        <v>1714.84952829828</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="X26" t="n">
-        <v>1295.707064877591</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="Y26" t="n">
-        <v>887.4209411772441</v>
+        <v>2333.10650073156</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>555.2373584323959</v>
+        <v>555.2373584323961</v>
       </c>
       <c r="C27" t="n">
-        <v>448.7808972690382</v>
+        <v>448.7808972690385</v>
       </c>
       <c r="D27" t="n">
-        <v>353.6906084155915</v>
+        <v>353.6906084155917</v>
       </c>
       <c r="E27" t="n">
-        <v>259.5701937425452</v>
+        <v>259.5701937425454</v>
       </c>
       <c r="F27" t="n">
-        <v>176.1863553587068</v>
+        <v>176.186355358707</v>
       </c>
       <c r="G27" t="n">
         <v>91.81525494836369</v>
@@ -6305,16 +6305,16 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870732</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620955</v>
       </c>
       <c r="M27" t="n">
-        <v>816.0537566647931</v>
+        <v>816.0537566647929</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
@@ -6341,16 +6341,16 @@
         <v>1342.334746698865</v>
       </c>
       <c r="V27" t="n">
-        <v>1143.217228760864</v>
+        <v>1143.217228760865</v>
       </c>
       <c r="W27" t="n">
-        <v>957.8944744940584</v>
+        <v>957.8944744940586</v>
       </c>
       <c r="X27" t="n">
-        <v>803.0270387329383</v>
+        <v>803.0270387329385</v>
       </c>
       <c r="Y27" t="n">
-        <v>676.5412595121591</v>
+        <v>676.5412595121593</v>
       </c>
     </row>
     <row r="28">
@@ -6363,19 +6363,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728608</v>
       </c>
       <c r="D28" t="n">
-        <v>766.5181902743841</v>
+        <v>766.5181902743836</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251208</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868771</v>
       </c>
       <c r="G28" t="n">
-        <v>255.3119520993958</v>
+        <v>255.3119520993955</v>
       </c>
       <c r="H28" t="n">
         <v>122.9678914787119</v>
@@ -6411,25 +6411,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S28" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T28" t="n">
         <v>2606.956483155638</v>
       </c>
       <c r="U28" t="n">
-        <v>2328.569851204381</v>
+        <v>2328.56985120438</v>
       </c>
       <c r="V28" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W28" t="n">
-        <v>1769.587938661103</v>
+        <v>1769.587938661102</v>
       </c>
       <c r="X28" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y28" t="n">
-        <v>1296.776513308624</v>
+        <v>1296.776513308623</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2065.288588445679</v>
+        <v>1294.580263767884</v>
       </c>
       <c r="C29" t="n">
-        <v>1627.146115629102</v>
+        <v>856.4377909513073</v>
       </c>
       <c r="D29" t="n">
-        <v>1191.236330803547</v>
+        <v>856.4377909513073</v>
       </c>
       <c r="E29" t="n">
-        <v>757.4615859618418</v>
+        <v>422.6630461096025</v>
       </c>
       <c r="F29" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G29" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495994</v>
@@ -6466,25 +6466,25 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>960.2456682417247</v>
+        <v>976.4735309700051</v>
       </c>
       <c r="L29" t="n">
-        <v>1253.361543105625</v>
+        <v>1269.589405833906</v>
       </c>
       <c r="M29" t="n">
-        <v>1579.509431274412</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N29" t="n">
-        <v>1910.93473325089</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O29" t="n">
-        <v>2409.27217527352</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P29" t="n">
-        <v>2676.372466452789</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
@@ -6493,22 +6493,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2750.658850409073</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U29" t="n">
-        <v>2491.588158930587</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V29" t="n">
-        <v>2491.588158930587</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W29" t="n">
-        <v>2491.588158930587</v>
+        <v>2548.308421373828</v>
       </c>
       <c r="X29" t="n">
-        <v>2491.588158930587</v>
+        <v>2129.165957953138</v>
       </c>
       <c r="Y29" t="n">
-        <v>2491.588158930587</v>
+        <v>1720.879834252792</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I30" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6600,19 +6600,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G31" t="n">
-        <v>255.3119520993958</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H31" t="n">
         <v>122.9678914787119</v>
@@ -6621,25 +6621,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>205.3579537818329</v>
+        <v>122.9540426842108</v>
       </c>
       <c r="K31" t="n">
-        <v>576.9165089205267</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L31" t="n">
-        <v>1118.997192306786</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M31" t="n">
-        <v>1249.601584645315</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N31" t="n">
-        <v>1753.488026254673</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O31" t="n">
-        <v>2290.923156828216</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P31" t="n">
-        <v>2739.199106976242</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2028.881494940646</v>
+        <v>1910.237599358032</v>
       </c>
       <c r="C32" t="n">
-        <v>1590.739022124069</v>
+        <v>1472.095126541456</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.739022124069</v>
+        <v>1036.1853417159</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.964277282364</v>
+        <v>602.4105968741951</v>
       </c>
       <c r="F32" t="n">
-        <v>729.0968476915723</v>
+        <v>174.5431672834029</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495994</v>
@@ -6700,25 +6700,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>723.9740178625037</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K32" t="n">
-        <v>960.2456682417247</v>
+        <v>524.9909807888067</v>
       </c>
       <c r="L32" t="n">
-        <v>1253.361543105625</v>
+        <v>818.1068556527074</v>
       </c>
       <c r="M32" t="n">
-        <v>1579.509431274412</v>
+        <v>1144.254743821495</v>
       </c>
       <c r="N32" t="n">
-        <v>1910.93473325089</v>
+        <v>1475.680045797972</v>
       </c>
       <c r="O32" t="n">
-        <v>2223.890247792182</v>
+        <v>1788.635560339265</v>
       </c>
       <c r="P32" t="n">
-        <v>2490.990538971451</v>
+        <v>2055.735851518534</v>
       </c>
       <c r="Q32" t="n">
         <v>2707.7995967108</v>
@@ -6733,19 +6733,19 @@
         <v>2741.392624431906</v>
       </c>
       <c r="U32" t="n">
-        <v>2482.32193295342</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="V32" t="n">
-        <v>2119.704982887247</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="W32" t="n">
-        <v>2119.704982887247</v>
+        <v>2336.53716984294</v>
       </c>
       <c r="X32" t="n">
-        <v>2119.704982887247</v>
+        <v>2336.53716984294</v>
       </c>
       <c r="Y32" t="n">
-        <v>2119.704982887247</v>
+        <v>2336.53716984294</v>
       </c>
     </row>
     <row r="33">
@@ -6776,16 +6776,16 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
         <v>816.053756664793</v>
@@ -6849,7 +6849,7 @@
         <v>420.0531324868775</v>
       </c>
       <c r="G34" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993958</v>
       </c>
       <c r="H34" t="n">
         <v>122.9678914787119</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1157.437864695812</v>
+        <v>1783.63201234403</v>
       </c>
       <c r="C35" t="n">
-        <v>719.2953918792355</v>
+        <v>1345.489539527453</v>
       </c>
       <c r="D35" t="n">
-        <v>475.8050098601929</v>
+        <v>909.5797547018979</v>
       </c>
       <c r="E35" t="n">
-        <v>475.8050098601929</v>
+        <v>475.8050098601931</v>
       </c>
       <c r="F35" t="n">
-        <v>47.93758026940066</v>
+        <v>47.9375802694008</v>
       </c>
       <c r="G35" t="n">
-        <v>47.93758026940066</v>
+        <v>47.9375802694008</v>
       </c>
       <c r="H35" t="n">
-        <v>47.93758026940066</v>
+        <v>47.9375802694008</v>
       </c>
       <c r="I35" t="n">
-        <v>119.1375305205813</v>
+        <v>119.1375305205814</v>
       </c>
       <c r="J35" t="n">
-        <v>276.7843057640266</v>
+        <v>276.7843057640267</v>
       </c>
       <c r="K35" t="n">
-        <v>513.0559561432474</v>
+        <v>513.0559561432476</v>
       </c>
       <c r="L35" t="n">
-        <v>806.1718310071481</v>
+        <v>806.1718310071483</v>
       </c>
       <c r="M35" t="n">
         <v>1132.319719175935</v>
@@ -6952,37 +6952,37 @@
         <v>1463.745021152413</v>
       </c>
       <c r="O35" t="n">
-        <v>1776.700535693705</v>
+        <v>1776.700535693706</v>
       </c>
       <c r="P35" t="n">
         <v>2043.800826872975</v>
       </c>
       <c r="Q35" t="n">
-        <v>2280.202429185892</v>
+        <v>2244.382021884042</v>
       </c>
       <c r="R35" t="n">
-        <v>2396.879013470033</v>
+        <v>2396.87901347004</v>
       </c>
       <c r="S35" t="n">
-        <v>2396.879013470033</v>
+        <v>2396.87901347004</v>
       </c>
       <c r="T35" t="n">
-        <v>2396.879013470033</v>
+        <v>2396.87901347004</v>
       </c>
       <c r="U35" t="n">
-        <v>2396.879013470033</v>
+        <v>2396.87901347004</v>
       </c>
       <c r="V35" t="n">
-        <v>2396.879013470033</v>
+        <v>2396.87901347004</v>
       </c>
       <c r="W35" t="n">
-        <v>1992.023558881066</v>
+        <v>2396.87901347004</v>
       </c>
       <c r="X35" t="n">
-        <v>1992.023558881066</v>
+        <v>2209.931582828938</v>
       </c>
       <c r="Y35" t="n">
-        <v>1583.73743518072</v>
+        <v>2209.931582828938</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>543.3023337868367</v>
+        <v>543.3023337868368</v>
       </c>
       <c r="C36" t="n">
-        <v>436.845872623479</v>
+        <v>436.8458726234791</v>
       </c>
       <c r="D36" t="n">
-        <v>341.7555837700322</v>
+        <v>341.7555837700324</v>
       </c>
       <c r="E36" t="n">
-        <v>247.6351690969859</v>
+        <v>247.6351690969861</v>
       </c>
       <c r="F36" t="n">
-        <v>164.2513307131475</v>
+        <v>164.2513307131477</v>
       </c>
       <c r="G36" t="n">
-        <v>79.88023030280442</v>
+        <v>79.88023030280456</v>
       </c>
       <c r="H36" t="n">
-        <v>47.93758026940066</v>
+        <v>47.9375802694008</v>
       </c>
       <c r="I36" t="n">
-        <v>82.15431644087681</v>
+        <v>82.15431644087676</v>
       </c>
       <c r="J36" t="n">
-        <v>176.047655787344</v>
+        <v>176.0476557873439</v>
       </c>
       <c r="K36" t="n">
         <v>336.5263278415142</v>
@@ -7058,10 +7058,10 @@
         <v>945.9594498484992</v>
       </c>
       <c r="X36" t="n">
-        <v>791.0920140873791</v>
+        <v>791.0920140873792</v>
       </c>
       <c r="Y36" t="n">
-        <v>664.6062348665998</v>
+        <v>664.6062348665999</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.9208055741303</v>
+        <v>790.9208055741304</v>
       </c>
       <c r="C37" t="n">
-        <v>618.3590940573553</v>
+        <v>618.3590940573554</v>
       </c>
       <c r="D37" t="n">
-        <v>452.481101258878</v>
+        <v>452.4811012588781</v>
       </c>
       <c r="E37" t="n">
-        <v>452.481101258878</v>
+        <v>452.4811012588781</v>
       </c>
       <c r="F37" t="n">
-        <v>275.7740472206342</v>
+        <v>275.7740472206343</v>
       </c>
       <c r="G37" t="n">
-        <v>111.0328668331526</v>
+        <v>111.0328668331528</v>
       </c>
       <c r="H37" t="n">
-        <v>111.0328668331526</v>
+        <v>111.0328668331528</v>
       </c>
       <c r="I37" t="n">
-        <v>47.93758026940066</v>
+        <v>47.9375802694008</v>
       </c>
       <c r="J37" t="n">
-        <v>106.8432439715838</v>
+        <v>106.8432439715839</v>
       </c>
       <c r="K37" t="n">
-        <v>203.643344539142</v>
+        <v>203.6433445391421</v>
       </c>
       <c r="L37" t="n">
-        <v>512.5904883304064</v>
+        <v>512.5904883304136</v>
       </c>
       <c r="M37" t="n">
-        <v>1102.678747849849</v>
+        <v>1102.678747849856</v>
       </c>
       <c r="N37" t="n">
-        <v>1672.436462811383</v>
+        <v>1672.43646281139</v>
       </c>
       <c r="O37" t="n">
-        <v>2209.871593384926</v>
+        <v>2209.871593384933</v>
       </c>
       <c r="P37" t="n">
-        <v>2310.64064956261</v>
+        <v>2310.640649562617</v>
       </c>
       <c r="Q37" t="n">
-        <v>2380.407920793265</v>
+        <v>2380.407920793273</v>
       </c>
       <c r="R37" t="n">
-        <v>2396.879013470033</v>
+        <v>2396.87901347004</v>
       </c>
       <c r="S37" t="n">
-        <v>2252.452474974268</v>
+        <v>2396.87901347004</v>
       </c>
       <c r="T37" t="n">
-        <v>2010.205250877674</v>
+        <v>2154.631789373447</v>
       </c>
       <c r="U37" t="n">
-        <v>1731.818618926417</v>
+        <v>1876.24515742219</v>
       </c>
       <c r="V37" t="n">
-        <v>1444.863110796848</v>
+        <v>1589.28964929262</v>
       </c>
       <c r="W37" t="n">
-        <v>1172.836706383139</v>
+        <v>1455.550849645597</v>
       </c>
       <c r="X37" t="n">
-        <v>1172.836706383139</v>
+        <v>1210.159094979009</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4170356972477</v>
+        <v>982.7394242931175</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1562.293319284779</v>
+        <v>1589.079040704295</v>
       </c>
       <c r="C38" t="n">
-        <v>1124.150846468202</v>
+        <v>1150.936567887718</v>
       </c>
       <c r="D38" t="n">
-        <v>909.5797547018977</v>
+        <v>1150.936567887718</v>
       </c>
       <c r="E38" t="n">
-        <v>475.8050098601929</v>
+        <v>717.1618230460133</v>
       </c>
       <c r="F38" t="n">
-        <v>47.93758026940066</v>
+        <v>717.1618230460133</v>
       </c>
       <c r="G38" t="n">
-        <v>47.93758026940066</v>
+        <v>317.6591317254904</v>
       </c>
       <c r="H38" t="n">
-        <v>47.93758026940066</v>
+        <v>47.9375802694008</v>
       </c>
       <c r="I38" t="n">
-        <v>119.1375305205813</v>
+        <v>119.1375305205814</v>
       </c>
       <c r="J38" t="n">
-        <v>312.6047130658771</v>
+        <v>276.7843057640267</v>
       </c>
       <c r="K38" t="n">
-        <v>548.876363445098</v>
+        <v>513.0559561432476</v>
       </c>
       <c r="L38" t="n">
-        <v>841.9922383089987</v>
+        <v>806.1718310071483</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.140126477786</v>
+        <v>1132.319719175935</v>
       </c>
       <c r="N38" t="n">
-        <v>1499.565428454263</v>
+        <v>1499.56542845427</v>
       </c>
       <c r="O38" t="n">
-        <v>1812.520942995556</v>
+        <v>1812.520942995563</v>
       </c>
       <c r="P38" t="n">
-        <v>2079.621234174825</v>
+        <v>2079.621234174832</v>
       </c>
       <c r="Q38" t="n">
-        <v>2280.202429185892</v>
+        <v>2280.2024291859</v>
       </c>
       <c r="R38" t="n">
-        <v>2396.879013470033</v>
+        <v>2396.87901347004</v>
       </c>
       <c r="S38" t="n">
-        <v>2396.879013470033</v>
+        <v>2356.412643684837</v>
       </c>
       <c r="T38" t="n">
-        <v>2396.879013470033</v>
+        <v>2274.449302667689</v>
       </c>
       <c r="U38" t="n">
-        <v>2396.879013470033</v>
+        <v>2015.378611189203</v>
       </c>
       <c r="V38" t="n">
-        <v>2396.879013470033</v>
+        <v>2015.378611189203</v>
       </c>
       <c r="W38" t="n">
-        <v>2396.879013470033</v>
+        <v>2015.378611189203</v>
       </c>
       <c r="X38" t="n">
-        <v>2396.879013470033</v>
+        <v>2015.378611189203</v>
       </c>
       <c r="Y38" t="n">
-        <v>1988.592889769686</v>
+        <v>2015.378611189203</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>543.3023337868367</v>
+        <v>543.3023337868368</v>
       </c>
       <c r="C39" t="n">
-        <v>436.845872623479</v>
+        <v>436.8458726234791</v>
       </c>
       <c r="D39" t="n">
-        <v>341.7555837700323</v>
+        <v>341.7555837700324</v>
       </c>
       <c r="E39" t="n">
-        <v>247.635169096986</v>
+        <v>247.6351690969861</v>
       </c>
       <c r="F39" t="n">
-        <v>164.2513307131476</v>
+        <v>164.2513307131477</v>
       </c>
       <c r="G39" t="n">
-        <v>79.88023030280442</v>
+        <v>79.88023030280456</v>
       </c>
       <c r="H39" t="n">
-        <v>47.93758026940066</v>
+        <v>47.9375802694008</v>
       </c>
       <c r="I39" t="n">
-        <v>82.15431644087678</v>
+        <v>82.15431644087693</v>
       </c>
       <c r="J39" t="n">
         <v>176.0476557873439</v>
@@ -7295,10 +7295,10 @@
         <v>945.9594498484992</v>
       </c>
       <c r="X39" t="n">
-        <v>791.0920140873791</v>
+        <v>791.0920140873792</v>
       </c>
       <c r="Y39" t="n">
-        <v>664.6062348665998</v>
+        <v>664.6062348665999</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>508.206662311673</v>
+        <v>865.1864029928438</v>
       </c>
       <c r="C40" t="n">
-        <v>508.206662311673</v>
+        <v>692.6246914760687</v>
       </c>
       <c r="D40" t="n">
-        <v>342.3286695131957</v>
+        <v>526.7466986775914</v>
       </c>
       <c r="E40" t="n">
-        <v>342.3286695131957</v>
+        <v>356.9886949283287</v>
       </c>
       <c r="F40" t="n">
-        <v>342.3286695131957</v>
+        <v>180.2816408900849</v>
       </c>
       <c r="G40" t="n">
-        <v>243.3769274538367</v>
+        <v>180.2816408900849</v>
       </c>
       <c r="H40" t="n">
-        <v>111.0328668331526</v>
+        <v>47.9375802694008</v>
       </c>
       <c r="I40" t="n">
-        <v>47.93758026940066</v>
+        <v>47.9375802694008</v>
       </c>
       <c r="J40" t="n">
-        <v>106.8432439715838</v>
+        <v>106.8432439715839</v>
       </c>
       <c r="K40" t="n">
-        <v>203.643344539142</v>
+        <v>356.552806448039</v>
       </c>
       <c r="L40" t="n">
-        <v>745.7240279254009</v>
+        <v>898.6334898342978</v>
       </c>
       <c r="M40" t="n">
-        <v>1102.678747849849</v>
+        <v>1029.237882172827</v>
       </c>
       <c r="N40" t="n">
-        <v>1672.436462811383</v>
+        <v>1156.736793976717</v>
       </c>
       <c r="O40" t="n">
-        <v>2209.871593384926</v>
+        <v>1694.17192455026</v>
       </c>
       <c r="P40" t="n">
-        <v>2310.64064956261</v>
+        <v>2142.447874698285</v>
       </c>
       <c r="Q40" t="n">
-        <v>2380.407920793265</v>
+        <v>2380.407920793273</v>
       </c>
       <c r="R40" t="n">
-        <v>2396.879013470033</v>
+        <v>2396.87901347004</v>
       </c>
       <c r="S40" t="n">
-        <v>2252.452474974268</v>
+        <v>2396.87901347004</v>
       </c>
       <c r="T40" t="n">
-        <v>2010.205250877674</v>
+        <v>2154.631789373447</v>
       </c>
       <c r="U40" t="n">
-        <v>1731.818618926417</v>
+        <v>1876.24515742219</v>
       </c>
       <c r="V40" t="n">
-        <v>1444.863110796848</v>
+        <v>1610.024232759032</v>
       </c>
       <c r="W40" t="n">
-        <v>1172.836706383139</v>
+        <v>1337.997828345323</v>
       </c>
       <c r="X40" t="n">
-        <v>927.4449517165519</v>
+        <v>1092.606073678736</v>
       </c>
       <c r="Y40" t="n">
-        <v>700.0252810306602</v>
+        <v>865.1864029928438</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>1111.802223690764</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>673.659750874187</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>237.7499660486315</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>237.7499660486315</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>237.7499660486315</v>
       </c>
       <c r="G41" t="n">
         <v>47.20655154895474</v>
@@ -7408,16 +7408,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>2209.200554108492</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W41" t="n">
-        <v>2209.200554108492</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X41" t="n">
-        <v>2209.200554108492</v>
+        <v>1538.101794175671</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.200554108492</v>
+        <v>1538.101794175671</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>992.2890823372272</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C43" t="n">
-        <v>819.7273708204522</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D43" t="n">
-        <v>653.8493780219749</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E43" t="n">
-        <v>484.0913742727121</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F43" t="n">
-        <v>307.3843202344683</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>142.6431398469867</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895474</v>
@@ -7575,16 +7575,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M43" t="n">
-        <v>875.5973915434845</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N43" t="n">
-        <v>1445.355106505019</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O43" t="n">
-        <v>1982.790237078562</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
         <v>2274.089213540314</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2215.901038951972</v>
+        <v>2126.824678191488</v>
       </c>
       <c r="U43" t="n">
-        <v>2215.901038951972</v>
+        <v>1848.438046240231</v>
       </c>
       <c r="V43" t="n">
-        <v>1928.945530822402</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="W43" t="n">
-        <v>1656.919126408694</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X43" t="n">
-        <v>1411.527371742106</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y43" t="n">
-        <v>1184.107701056214</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.205539167272</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="C44" t="n">
-        <v>1150.205539167272</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D44" t="n">
-        <v>1150.205539167272</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G44" t="n">
         <v>316.9281030050443</v>
@@ -7645,7 +7645,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
         <v>276.0532770435809</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2325.964067522759</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2325.964067522759</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2325.964067522759</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="V44" t="n">
-        <v>1963.347117456585</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="W44" t="n">
-        <v>1558.491662867619</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="X44" t="n">
-        <v>1558.491662867619</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="Y44" t="n">
-        <v>1150.205539167272</v>
+        <v>2052.622535079674</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>959.9477806029472</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>787.3860690861721</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D46" t="n">
-        <v>621.5080762876948</v>
+        <v>616.081764785142</v>
       </c>
       <c r="E46" t="n">
-        <v>451.7500725384321</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
         <v>110.3018381127067</v>
@@ -7806,10 +7806,10 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L46" t="n">
         <v>481.9462364092378</v>
@@ -7842,16 +7842,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1839.693721399886</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1567.667316986178</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>1322.275562319591</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1094.855891633699</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L3" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>39.645709995102</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="P6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P7" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,25 +8458,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="K9" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="P10" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8856,10 +8856,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N13" t="n">
-        <v>264.6463123855401</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>192.4544649334025</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>36.18222959782963</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>36.18222959783498</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>268.6838440351382</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>188.4199087179729</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>36.18222959783498</v>
       </c>
       <c r="R20" t="n">
-        <v>36.18222959782952</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>300.0538539227718</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>188.4199087179675</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>16.3917805336165</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>187.2544722033713</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>380.1894240459278</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>16.39178053361684</v>
+        <v>456.0429799810081</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.18222959782861</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>36.18222959783589</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>186.9458001747136</v>
+        <v>186.9458001747208</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>36.18222959782889</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>36.18222959783589</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>154.4540019281786</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>228.6366945312309</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11223,10 +11223,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11235,7 +11235,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>192.4544649334025</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042867</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="M46" t="n">
         <v>458.1582657371571</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>82.25281762500714</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>157.6123821569732</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>27.01017528290015</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>81.67066052189142</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>150.3847529294513</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -23557,10 +23557,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>60.13588552871187</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.52445320303701</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>68.52945523487125</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>252.1014762224273</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>114.922549700618</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.10700951194336</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>28.10059687786912</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>127.8516508123222</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>269.9347885391427</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>77.80717764261369</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.0273153108677</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>265.2957222292436</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>148.2012435610109</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>122.9675086310664</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>293.3768131168104</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>64.42621851218826</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>9.173563717394899</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>332.1213217129239</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>281.9838076625591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>190.4952087784478</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>229.8730824517909</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.94916470991106</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>136.9047287190183</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>219.1253061286587</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>128.5098314086017</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>65.1315439448414</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>20.5272376317472</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>206.8696840526376</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>100.0994919970771</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>36.53839759942561</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>8.656881591941101</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.041831261622583</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>201.567237722248</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.3414026113532</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>136.3926684020045</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348885.5445108332</v>
+        <v>348885.5445108331</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348885.5445108332</v>
+        <v>348885.5445108331</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>353959.5137803288</v>
+        <v>353959.5137803296</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>353959.5137803288</v>
+        <v>353959.5137803296</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>436798.8695929146</v>
+        <v>436798.8695929147</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>353959.5137803287</v>
+        <v>353959.5137803297</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>353959.5137803287</v>
+        <v>353959.5137803297</v>
       </c>
     </row>
     <row r="15">
@@ -26319,19 +26319,19 @@
         <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260259</v>
+        <v>361899.4409260258</v>
       </c>
       <c r="E2" t="n">
         <v>212351.7212561034</v>
       </c>
       <c r="F2" t="n">
-        <v>212351.7212561035</v>
+        <v>212351.7212561033</v>
       </c>
       <c r="G2" t="n">
-        <v>214831.5931278957</v>
+        <v>214831.593127896</v>
       </c>
       <c r="H2" t="n">
-        <v>214831.5931278957</v>
+        <v>214831.593127896</v>
       </c>
       <c r="I2" t="n">
         <v>255318.8285536323</v>
@@ -26346,10 +26346,10 @@
         <v>255318.8285536323</v>
       </c>
       <c r="M2" t="n">
-        <v>214831.5931278956</v>
+        <v>214831.5931278961</v>
       </c>
       <c r="N2" t="n">
-        <v>214831.5931278956</v>
+        <v>214831.5931278961</v>
       </c>
       <c r="O2" t="n">
         <v>212351.7212561035</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>538799.4500107513</v>
+        <v>538799.4500107509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2504.550085542797</v>
+        <v>2504.550085543264</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39672.17110964707</v>
+        <v>39672.17110964668</v>
       </c>
       <c r="J3" t="n">
         <v>10809.82265736726</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99576.705860966</v>
+        <v>99576.70586096642</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>299855.2806251332</v>
       </c>
       <c r="C4" t="n">
-        <v>299855.2806251331</v>
+        <v>299855.2806251332</v>
       </c>
       <c r="D4" t="n">
         <v>299855.2806251332</v>
       </c>
       <c r="E4" t="n">
-        <v>11163.53558956959</v>
+        <v>11163.5355895696</v>
       </c>
       <c r="F4" t="n">
         <v>11163.53558956959</v>
       </c>
       <c r="G4" t="n">
-        <v>12293.70200394963</v>
+        <v>12293.7020039498</v>
       </c>
       <c r="H4" t="n">
-        <v>12293.70200394963</v>
+        <v>12293.7020039498</v>
       </c>
       <c r="I4" t="n">
         <v>30745.18500584982</v>
@@ -26444,16 +26444,16 @@
         <v>30745.18500584982</v>
       </c>
       <c r="K4" t="n">
-        <v>30745.18500584983</v>
+        <v>30745.18500584981</v>
       </c>
       <c r="L4" t="n">
-        <v>30745.18500584982</v>
+        <v>30745.18500584981</v>
       </c>
       <c r="M4" t="n">
-        <v>12293.7020039496</v>
+        <v>12293.70200394983</v>
       </c>
       <c r="N4" t="n">
-        <v>12293.70200394961</v>
+        <v>12293.70200394983</v>
       </c>
       <c r="O4" t="n">
         <v>11163.53558956959</v>
@@ -26478,16 +26478,16 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46606.66303717674</v>
+        <v>46606.66303717682</v>
       </c>
       <c r="H5" t="n">
-        <v>46606.66303717674</v>
+        <v>46606.66303717682</v>
       </c>
       <c r="I5" t="n">
         <v>55677.28176780177</v>
@@ -26502,10 +26502,10 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46606.66303717672</v>
+        <v>46606.66303717683</v>
       </c>
       <c r="N5" t="n">
-        <v>46606.66303717672</v>
+        <v>46606.66303717683</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26524,46 +26524,46 @@
         <v>12059.0003493064</v>
       </c>
       <c r="C6" t="n">
+        <v>25904.60811560282</v>
+      </c>
+      <c r="D6" t="n">
         <v>25904.60811560294</v>
       </c>
-      <c r="D6" t="n">
-        <v>25904.608115603</v>
-      </c>
       <c r="E6" t="n">
-        <v>-383662.3455538552</v>
+        <v>-384216.2259970769</v>
       </c>
       <c r="F6" t="n">
-        <v>155137.104456896</v>
+        <v>154583.224013674</v>
       </c>
       <c r="G6" t="n">
-        <v>153426.6780012265</v>
+        <v>152881.9822686404</v>
       </c>
       <c r="H6" t="n">
-        <v>155931.2280867693</v>
+        <v>155386.5323541837</v>
       </c>
       <c r="I6" t="n">
-        <v>129224.1906703337</v>
+        <v>128829.4476615474</v>
       </c>
       <c r="J6" t="n">
-        <v>158086.5391226134</v>
+        <v>157691.7961138269</v>
       </c>
       <c r="K6" t="n">
-        <v>168896.3617799807</v>
+        <v>168501.6187711941</v>
       </c>
       <c r="L6" t="n">
-        <v>168896.3617799807</v>
+        <v>168501.6187711941</v>
       </c>
       <c r="M6" t="n">
-        <v>56354.52222580329</v>
+        <v>55809.82649321736</v>
       </c>
       <c r="N6" t="n">
-        <v>155931.2280867693</v>
+        <v>155386.5323541837</v>
       </c>
       <c r="O6" t="n">
-        <v>155137.104456896</v>
+        <v>154583.2240136741</v>
       </c>
       <c r="P6" t="n">
-        <v>155137.104456896</v>
+        <v>154583.2240136741</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
@@ -26798,16 +26798,16 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>599.2197533675085</v>
+        <v>599.2197533675098</v>
       </c>
       <c r="H4" t="n">
-        <v>599.2197533675085</v>
+        <v>599.2197533675098</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -26822,10 +26822,10 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>599.2197533675082</v>
+        <v>599.2197533675101</v>
       </c>
       <c r="N4" t="n">
-        <v>599.2197533675082</v>
+        <v>599.2197533675101</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.137859005574171</v>
+        <v>9.137859005575876</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>149.1878080694908</v>
+        <v>149.1878080694893</v>
       </c>
       <c r="J4" t="n">
         <v>41.3150030475274</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.5790832449158</v>
+        <v>399.5790832449175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.137859005574171</v>
+        <v>9.137859005575876</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>87.56185418517705</v>
       </c>
       <c r="U3" t="n">
-        <v>138.1829268457693</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W3" t="n">
-        <v>183.4695267241379</v>
+        <v>147.0792720398758</v>
       </c>
       <c r="X3" t="n">
         <v>153.3187614035088</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.5854294842699</v>
+        <v>153.5101778475351</v>
       </c>
       <c r="C4" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27593,19 +27593,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.9588623764525</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27700,19 +27700,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
         <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>4.928040977687559</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27754,7 +27754,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>160.7360880743585</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27794,7 +27794,7 @@
         <v>97.18814951900188</v>
       </c>
       <c r="I7" t="n">
-        <v>72.58673813049116</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -27934,19 +27934,19 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>48.14098415221586</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
         <v>41.31829566194965</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T9" t="n">
         <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>147.0792720398758</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>153.5101778475351</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28028,10 +28028,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>121.2587003307212</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3336676918984</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R13" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -33973,7 +33973,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562322</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -34207,7 +34207,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34444,7 +34444,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L3" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>39.645709995102</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="P6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P7" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="K9" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="P10" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447063</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247774</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N13" t="n">
-        <v>393.4330919854285</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35591,7 +35591,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35734,7 +35734,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>294.241390365406</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35883,7 +35883,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>195.4213965104007</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>154.037365238381</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -35986,7 +35986,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N19" t="n">
-        <v>397.4706236350266</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>307.3753444227827</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
@@ -36129,7 +36129,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36141,10 +36141,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>238.7894972857821</v>
       </c>
       <c r="R20" t="n">
-        <v>154.0373652383755</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36223,7 +36223,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>425.1758757594364</v>
       </c>
       <c r="M22" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>307.3753444227773</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
         <v>70.4719911420766</v>
@@ -36445,10 +36445,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36685,13 +36685,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
@@ -36834,10 +36834,10 @@
         <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>255.0500132399003</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,7 +36846,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>503.3711535582122</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
@@ -36855,7 +36855,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36934,7 +36934,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>63.71862400934436</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
-        <v>508.9762036458162</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37010,7 +37010,7 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,28 +37068,28 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q32" t="n">
-        <v>218.999048221564</v>
+        <v>658.6502476689552</v>
       </c>
       <c r="R32" t="n">
         <v>288.7178273103004</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37156,7 +37156,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
@@ -37308,7 +37308,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>238.7894972857757</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>154.0373652383819</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916783</v>
+        <v>34.56235976916763</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37469,7 +37469,7 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>312.0678220113782</v>
+        <v>312.0678220113854</v>
       </c>
       <c r="M37" t="n">
         <v>596.0487469893359</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>195.4213965103999</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,10 +37551,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>370.955261897308</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -37621,7 +37621,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562322</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37703,25 +37703,25 @@
         <v>59.50067040624559</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>252.2318812893485</v>
       </c>
       <c r="L40" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>360.5603231560081</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37788,7 +37788,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37943,19 +37943,19 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>294.241390365406</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
         <v>70.4719911420766</v>
@@ -38016,7 +38016,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409513</v>
+        <v>194.3982176018706</v>
       </c>
       <c r="M46" t="n">
         <v>590.0818943619342</v>
